--- a/biology/Origine et évolution du vivant/Alan_Grafen/Alan_Grafen.xlsx
+++ b/biology/Origine et évolution du vivant/Alan_Grafen/Alan_Grafen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alan Grafen est un éthologue et biologiste de l'évolution écossais. Professeur et chercheur à l'université d'Oxford[1], il publie régulièrement dans la presse scientifique.
-Ses travaux sont axés sur théorie des jeux en biologie. Il est élu membre de la Royal Society en 2011[2].
-Il s'est par ailleurs distingué en éditant, en 2006, avec le zoologue Mark Ridley, un festschrift inititulé Richard Dawkins: How a Scientist Changed the Way We Think[3] honorant les travaux de son collègue Richard Dawkins, lui aussi professeur à Oxford.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alan Grafen est un éthologue et biologiste de l'évolution écossais. Professeur et chercheur à l'université d'Oxford, il publie régulièrement dans la presse scientifique.
+Ses travaux sont axés sur théorie des jeux en biologie. Il est élu membre de la Royal Society en 2011.
+Il s'est par ailleurs distingué en éditant, en 2006, avec le zoologue Mark Ridley, un festschrift inititulé Richard Dawkins: How a Scientist Changed the Way We Think honorant les travaux de son collègue Richard Dawkins, lui aussi professeur à Oxford.
 </t>
         </is>
       </c>
